--- a/Dropdowns.xlsx
+++ b/Dropdowns.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+  <si>
+    <t>Sfdc.NavigateModule.module</t>
+  </si>
   <si>
     <t>Functions.SfdcOpenApp.app</t>
   </si>
@@ -41,6 +44,9 @@
   </si>
   <si>
     <t>Functions.SfdcNavigateModule.module</t>
+  </si>
+  <si>
+    <t>Sfdc.OpenApp.app</t>
   </si>
   <si>
     <t>Contacts</t>
@@ -406,80 +412,132 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="$A$1" sqref="$A$1:$B$1"/>
+      <selection activeCell="$B$9" sqref="$B$9:$B$9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="25.08984375" customWidth="1"/>
-    <col min="2" max="16384" width="8.7265625"/>
+    <col min="1" max="1" width="20.28125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" customWidth="1"/>
+    <col min="5" max="5" width="37.28125" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
